--- a/medicine/Enfance/Julie_Pearson/Julie_Pearson.xlsx
+++ b/medicine/Enfance/Julie_Pearson/Julie_Pearson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julie Pearson (née en 1978) est une éducatrice spécialisée et auteure québécoise de livres pour la jeunesse.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julie Pearson a exercé en tant qu'éducatrice spécialisée auprès de la jeunesse, dans les centres jeunesse pendant une quinzaine d'années. Elle a obtenu en 2015, pour son premier livre, Elliot, le Prix du livre jeunesse des bibliothèques de Montréal, Canada[1],[2],[3],[4].
-Son travail s'intéresse aux thématiques de l'enfance, de l'adoption, de la relation parent-enfant. Ces sujets font échos à sa vie personnelle et professionnelle[1],[2],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julie Pearson a exercé en tant qu'éducatrice spécialisée auprès de la jeunesse, dans les centres jeunesse pendant une quinzaine d'années. Elle a obtenu en 2015, pour son premier livre, Elliot, le Prix du livre jeunesse des bibliothèques de Montréal, Canada.
+Son travail s'intéresse aux thématiques de l'enfance, de l'adoption, de la relation parent-enfant. Ces sujets font échos à sa vie personnelle et professionnelle.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2015, pour la publication de son album jeunesse Elliot, Julie Pearson a obtenu le Prix du livre jeunesse des bibliothèques de Montréal, et le Prix Cécile-Gagnon dans le volet "Album"[5],[6]. Le livre est également lauréat du Prix Purple Island du Nami concours pour ses illustrations[6],[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2015, pour la publication de son album jeunesse Elliot, Julie Pearson a obtenu le Prix du livre jeunesse des bibliothèques de Montréal, et le Prix Cécile-Gagnon dans le volet "Album",. Le livre est également lauréat du Prix Purple Island du Nami concours pour ses illustrations,.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Julie Pearson et Manon Gauthier (ill. Manon Gauthier), Elliot, les 400 coups, coll. « Carré blanc », 2014 (réimpr. 2017) (1re éd. 2014) (ISBN 978-2-89540-655-6 et 978-2-89540-757-7, OCLC 1153577779, BNF 44288589)
 Julie Pearson (ill. Manon Gauthier), Pour Toujours, Toujours, Les 400 coups, 2014 (ISBN 978-2-89540-655-6, OCLC 883457379)</t>
